--- a/backend/uploads/cp_bahasa_indonesia_1762149307926.xlsx
+++ b/backend/uploads/cp_bahasa_indonesia_1762149307926.xlsx
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>1 dan 2</v>
+        <v>1,2</v>
       </c>
       <c r="H8" t="str">
         <v/>
